--- a/Excel/Lv2Stage.xlsx
+++ b/Excel/Lv2Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gravi\ドキュメント\Poor-Railroad-Company\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD0B1A-5454-4596-B0CF-B8F2CA50C2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71519D52-385D-40B3-8D11-470EEC4AABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -99,7 +99,27 @@
   <dxfs count="33">
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
@@ -111,6 +131,21 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -119,11 +154,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -140,17 +175,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
+        <color rgb="FF92D050"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -160,46 +195,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -311,7 +311,27 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
@@ -323,6 +343,21 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -331,11 +366,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -352,17 +387,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
+        <color rgb="FF92D050"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -372,46 +407,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -751,10 +751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+      <selection activeCell="BE14" sqref="BD14:BE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -762,192 +762,192 @@
     <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1">
-        <v>0</v>
-      </c>
-      <c r="W1" s="1">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="1">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>20</v>
       </c>
@@ -1131,14 +1131,8 @@
       <c r="BI2">
         <v>20</v>
       </c>
-      <c r="BJ2">
-        <v>20</v>
-      </c>
-      <c r="BK2">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1200,34 +1194,34 @@
         <v>20</v>
       </c>
       <c r="U3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="V3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="W3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="X3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Y3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AB3">
         <v>31</v>
       </c>
       <c r="AC3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AD3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AE3">
         <v>31</v>
@@ -1236,13 +1230,13 @@
         <v>31</v>
       </c>
       <c r="AG3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AH3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AI3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AJ3">
         <v>31</v>
@@ -1257,28 +1251,28 @@
         <v>31</v>
       </c>
       <c r="AN3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AO3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AP3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AQ3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AR3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AS3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AT3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AU3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AV3">
         <v>20</v>
@@ -1322,14 +1316,8 @@
       <c r="BI3">
         <v>20</v>
       </c>
-      <c r="BJ3">
-        <v>20</v>
-      </c>
-      <c r="BK3">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1400,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="X4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Y4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA4">
         <v>31</v>
@@ -1451,34 +1439,34 @@
         <v>31</v>
       </c>
       <c r="AO4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AP4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AQ4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AR4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AS4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AT4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AU4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AV4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AW4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AX4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AY4">
         <v>20</v>
@@ -1513,14 +1501,8 @@
       <c r="BI4">
         <v>20</v>
       </c>
-      <c r="BJ4">
-        <v>20</v>
-      </c>
-      <c r="BK4">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1642,46 +1624,46 @@
         <v>31</v>
       </c>
       <c r="AO5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AP5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AQ5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AR5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AS5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AT5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AU5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AV5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AW5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AX5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AY5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AZ5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BA5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BB5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC5">
         <v>20</v>
@@ -1704,14 +1686,8 @@
       <c r="BI5">
         <v>20</v>
       </c>
-      <c r="BJ5">
-        <v>20</v>
-      </c>
-      <c r="BK5">
-        <v>20</v>
-      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1758,13 +1734,13 @@
         <v>10</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -1788,7 +1764,7 @@
         <v>20</v>
       </c>
       <c r="Z6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA6">
         <v>31</v>
@@ -1800,31 +1776,31 @@
         <v>31</v>
       </c>
       <c r="AD6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AK6">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AL6">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AM6">
         <v>31</v>
@@ -1836,46 +1812,46 @@
         <v>31</v>
       </c>
       <c r="AP6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AQ6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AR6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AS6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AT6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AU6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AV6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AW6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AX6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AY6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AZ6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BA6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BB6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BD6">
         <v>20</v>
@@ -1895,14 +1871,8 @@
       <c r="BI6">
         <v>20</v>
       </c>
-      <c r="BJ6">
-        <v>20</v>
-      </c>
-      <c r="BK6">
-        <v>20</v>
-      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1946,19 +1916,19 @@
         <v>10</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T7">
         <v>10</v>
@@ -1982,10 +1952,10 @@
         <v>20</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2009,282 +1979,270 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL7">
         <v>8</v>
       </c>
       <c r="AM7">
+        <v>31</v>
+      </c>
+      <c r="AN7">
+        <v>31</v>
+      </c>
+      <c r="AO7">
+        <v>31</v>
+      </c>
+      <c r="AP7">
+        <v>31</v>
+      </c>
+      <c r="AQ7">
+        <v>20</v>
+      </c>
+      <c r="AR7">
+        <v>20</v>
+      </c>
+      <c r="AS7">
+        <v>20</v>
+      </c>
+      <c r="AT7">
+        <v>20</v>
+      </c>
+      <c r="AU7">
+        <v>20</v>
+      </c>
+      <c r="AV7">
+        <v>20</v>
+      </c>
+      <c r="AW7">
+        <v>20</v>
+      </c>
+      <c r="AX7">
+        <v>20</v>
+      </c>
+      <c r="AY7">
+        <v>20</v>
+      </c>
+      <c r="AZ7">
+        <v>20</v>
+      </c>
+      <c r="BA7">
+        <v>20</v>
+      </c>
+      <c r="BB7">
+        <v>20</v>
+      </c>
+      <c r="BC7">
+        <v>20</v>
+      </c>
+      <c r="BD7">
+        <v>20</v>
+      </c>
+      <c r="BE7">
+        <v>20</v>
+      </c>
+      <c r="BF7">
+        <v>20</v>
+      </c>
+      <c r="BG7">
+        <v>20</v>
+      </c>
+      <c r="BH7">
+        <v>20</v>
+      </c>
+      <c r="BI7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <v>13</v>
+      </c>
+      <c r="S8">
+        <v>13</v>
+      </c>
+      <c r="T8">
+        <v>13</v>
+      </c>
+      <c r="U8">
+        <v>13</v>
+      </c>
+      <c r="V8">
+        <v>13</v>
+      </c>
+      <c r="W8">
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <v>13</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
+        <v>31</v>
+      </c>
+      <c r="AA8">
+        <v>31</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>8</v>
       </c>
-      <c r="AN7">
+      <c r="AK8">
         <v>8</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>31</v>
-      </c>
-      <c r="AS7">
-        <v>31</v>
-      </c>
-      <c r="AT7">
-        <v>31</v>
-      </c>
-      <c r="AU7">
-        <v>31</v>
-      </c>
-      <c r="AV7">
-        <v>31</v>
-      </c>
-      <c r="AW7">
-        <v>31</v>
-      </c>
-      <c r="AX7">
-        <v>31</v>
-      </c>
-      <c r="AY7">
-        <v>31</v>
-      </c>
-      <c r="AZ7">
-        <v>31</v>
-      </c>
-      <c r="BA7">
-        <v>31</v>
-      </c>
-      <c r="BB7">
-        <v>31</v>
-      </c>
-      <c r="BC7">
-        <v>31</v>
-      </c>
-      <c r="BD7">
-        <v>31</v>
-      </c>
-      <c r="BE7">
-        <v>31</v>
-      </c>
-      <c r="BF7">
-        <v>31</v>
-      </c>
-      <c r="BG7">
-        <v>31</v>
-      </c>
-      <c r="BH7">
-        <v>31</v>
-      </c>
-      <c r="BI7">
-        <v>31</v>
-      </c>
-      <c r="BJ7">
-        <v>31</v>
-      </c>
-      <c r="BK7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>13</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <v>13</v>
-      </c>
-      <c r="M8">
-        <v>13</v>
-      </c>
-      <c r="N8">
-        <v>13</v>
-      </c>
-      <c r="O8">
-        <v>13</v>
-      </c>
-      <c r="P8">
-        <v>13</v>
-      </c>
-      <c r="Q8">
-        <v>13</v>
-      </c>
-      <c r="R8">
-        <v>10</v>
-      </c>
-      <c r="S8">
-        <v>10</v>
-      </c>
-      <c r="T8">
-        <v>10</v>
-      </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
-      <c r="V8">
-        <v>10</v>
-      </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
-      <c r="X8">
-        <v>10</v>
-      </c>
-      <c r="Y8">
-        <v>20</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
       </c>
       <c r="AL8">
         <v>8</v>
       </c>
       <c r="AM8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AT8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AU8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AV8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AW8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AX8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AY8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AZ8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BA8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BB8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BD8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BE8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BF8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BG8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BH8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BI8">
-        <v>31</v>
-      </c>
-      <c r="BJ8">
-        <v>31</v>
-      </c>
-      <c r="BK8">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2331,55 +2289,55 @@
         <v>6</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="R9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y9">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Z9">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2394,88 +2352,82 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="AW9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="AX9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="AY9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="AZ9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BA9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BB9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BC9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BD9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BE9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BF9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BG9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BH9">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BI9">
-        <v>31</v>
-      </c>
-      <c r="BJ9">
-        <v>31</v>
-      </c>
-      <c r="BK9">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2519,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P10">
         <v>13</v>
@@ -2540,16 +2492,16 @@
         <v>13</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z10">
         <v>20</v>
@@ -2591,82 +2543,76 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="AN10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AO10">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AP10">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AQ10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AS10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AT10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AU10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AV10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AW10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AX10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AY10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AZ10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BA10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BB10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BC10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BD10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BE10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BF10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BG10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BH10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BI10">
-        <v>6</v>
-      </c>
-      <c r="BJ10">
-        <v>6</v>
-      </c>
-      <c r="BK10">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>13</v>
       </c>
@@ -2710,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P11">
         <v>13</v>
@@ -2734,13 +2680,13 @@
         <v>13</v>
       </c>
       <c r="W11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X11">
         <v>13</v>
       </c>
       <c r="Y11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z11">
         <v>20</v>
@@ -2785,22 +2731,22 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP11">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AT11">
         <v>20</v>
@@ -2821,13 +2767,13 @@
         <v>20</v>
       </c>
       <c r="AZ11">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BA11">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BB11">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC11">
         <v>20</v>
@@ -2850,14 +2796,8 @@
       <c r="BI11">
         <v>20</v>
       </c>
-      <c r="BJ11">
-        <v>20</v>
-      </c>
-      <c r="BK11">
-        <v>20</v>
-      </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2901,58 +2841,58 @@
         <v>13</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AA12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -2976,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS12">
         <v>20</v>
@@ -3015,16 +2955,16 @@
         <v>20</v>
       </c>
       <c r="BA12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BB12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BD12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BE12">
         <v>20</v>
@@ -3041,14 +2981,8 @@
       <c r="BI12">
         <v>20</v>
       </c>
-      <c r="BJ12">
-        <v>20</v>
-      </c>
-      <c r="BK12">
-        <v>20</v>
-      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3092,46 +3026,46 @@
         <v>10</v>
       </c>
       <c r="O13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z13">
         <v>20</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -3152,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -3173,10 +3107,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR13">
         <v>20</v>
@@ -3212,13 +3146,13 @@
         <v>20</v>
       </c>
       <c r="BC13">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BD13">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BE13">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BF13">
         <v>20</v>
@@ -3232,14 +3166,8 @@
       <c r="BI13">
         <v>20</v>
       </c>
-      <c r="BJ13">
-        <v>20</v>
-      </c>
-      <c r="BK13">
-        <v>20</v>
-      </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3313,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -3322,10 +3250,10 @@
         <v>31</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -3343,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -3361,13 +3289,13 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR14">
         <v>20</v>
@@ -3406,16 +3334,16 @@
         <v>20</v>
       </c>
       <c r="BD14">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BE14">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BF14">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BG14">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BH14">
         <v>20</v>
@@ -3423,14 +3351,8 @@
       <c r="BI14">
         <v>20</v>
       </c>
-      <c r="BJ14">
-        <v>20</v>
-      </c>
-      <c r="BK14">
-        <v>20</v>
-      </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3516,10 +3438,10 @@
         <v>31</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -3549,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ15">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AR15">
         <v>20</v>
@@ -3600,28 +3522,22 @@
         <v>20</v>
       </c>
       <c r="BE15">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BF15">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BG15">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BH15">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BI15">
-        <v>31</v>
-      </c>
-      <c r="BJ15">
-        <v>31</v>
-      </c>
-      <c r="BK15">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>20</v>
       </c>
@@ -3695,10 +3611,10 @@
         <v>20</v>
       </c>
       <c r="Y16">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z16">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA16">
         <v>31</v>
@@ -3710,13 +3626,13 @@
         <v>31</v>
       </c>
       <c r="AD16">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -3731,25 +3647,25 @@
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO16">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AP16">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AQ16">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AR16">
         <v>20</v>
@@ -3803,50 +3719,44 @@
         <v>20</v>
       </c>
       <c r="BI16">
-        <v>20</v>
-      </c>
-      <c r="BJ16">
-        <v>20</v>
-      </c>
-      <c r="BK16">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BI1 A2:AJ3 AG13:AJ15 AM2:BK3 U3:AU3 A7:AJ12 A4:BK6 A13:AF16 AA7:BK8 AK10:BK16 AK9:AU9">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
-      <formula>51</formula>
+  <conditionalFormatting sqref="A1:BI1 A2:AJ3 AM2:BK3 U3:AU3 A4:BK6 AA7:BK8 A7:AJ12 AG13:AJ15 A13:AF16">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
-      <formula>30</formula>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
-      <formula>31</formula>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>20</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
-      <formula>20</formula>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
-      <formula>13</formula>
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AL2">
@@ -3884,39 +3794,39 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV9:BK9">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>51</formula>
+  <conditionalFormatting sqref="AK9:BK16">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>30</formula>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
-      <formula>31</formula>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>20</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>20</formula>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
-      <formula>13</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Lv2Stage.xlsx
+++ b/Excel/Lv2Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gravi\ドキュメント\Poor-Railroad-Company\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71519D52-385D-40B3-8D11-470EEC4AABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F6F378-4C1E-4646-8D7F-D43A603CA523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -96,7 +96,537 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -751,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI16"/>
+  <dimension ref="A1:BI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BE14" sqref="BD14:BE14"/>
+    <sheetView tabSelected="1" topLeftCell="M9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW23" sqref="AW23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3722,111 +4252,1696 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>20</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>20</v>
+      </c>
+      <c r="U17">
+        <v>20</v>
+      </c>
+      <c r="V17">
+        <v>20</v>
+      </c>
+      <c r="W17">
+        <v>20</v>
+      </c>
+      <c r="X17">
+        <v>20</v>
+      </c>
+      <c r="Y17">
+        <v>20</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>20</v>
+      </c>
+      <c r="AR17">
+        <v>20</v>
+      </c>
+      <c r="AS17">
+        <v>20</v>
+      </c>
+      <c r="AT17">
+        <v>20</v>
+      </c>
+      <c r="AU17">
+        <v>20</v>
+      </c>
+      <c r="AV17">
+        <v>20</v>
+      </c>
+      <c r="AW17">
+        <v>20</v>
+      </c>
+      <c r="AX17">
+        <v>20</v>
+      </c>
+      <c r="AY17">
+        <v>20</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>20</v>
+      </c>
+      <c r="BD17">
+        <v>20</v>
+      </c>
+      <c r="BE17">
+        <v>20</v>
+      </c>
+      <c r="BF17">
+        <v>20</v>
+      </c>
+      <c r="BG17">
+        <v>20</v>
+      </c>
+      <c r="BH17">
+        <v>20</v>
+      </c>
+      <c r="BI17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
+      <c r="S18">
+        <v>20</v>
+      </c>
+      <c r="T18">
+        <v>20</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>20</v>
+      </c>
+      <c r="W18">
+        <v>20</v>
+      </c>
+      <c r="X18">
+        <v>20</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>20</v>
+      </c>
+      <c r="AT18">
+        <v>20</v>
+      </c>
+      <c r="AU18">
+        <v>20</v>
+      </c>
+      <c r="AV18">
+        <v>20</v>
+      </c>
+      <c r="AW18">
+        <v>20</v>
+      </c>
+      <c r="AX18">
+        <v>20</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>20</v>
+      </c>
+      <c r="BF18">
+        <v>20</v>
+      </c>
+      <c r="BG18">
+        <v>20</v>
+      </c>
+      <c r="BH18">
+        <v>20</v>
+      </c>
+      <c r="BI18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>20</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>20</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>20</v>
+      </c>
+      <c r="AV19">
+        <v>20</v>
+      </c>
+      <c r="AW19">
+        <v>20</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>20</v>
+      </c>
+      <c r="BH19">
+        <v>20</v>
+      </c>
+      <c r="BI19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>20</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+      <c r="V20">
+        <v>20</v>
+      </c>
+      <c r="W20">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI1 A2:AJ3 AM2:BK3 U3:AU3 A4:BK6 AA7:BK8 A7:AJ12 AG13:AJ15 A13:AF16">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2:AL2">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9:BK16">
+    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:BI24 J17:N17 H18:O18 E19:Q19 Z17:AP17 Y19:AT19 A20:S20 X20:BH20 AZ17:BB17 Y18:AR18 A21:BH22 AY18:BD18 AX19:BF19">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:W20 R19:X19 P18:X18 O17:Y17 A19:D19 A18:G18 A17:I17">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU19:AW19 AS18:AX18 BG19:BI19 BE18:BI18 BC17:BI17 AQ17:AY17 BI20:BI22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
